--- a/data/trans_dic/Predimed_R3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Predimed_R3-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>9,17%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,73; 11,79</t>
+          <t>2,68; 12,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,96; 18,37</t>
+          <t>8,07; 18,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,32; 13,36</t>
+          <t>6,14; 13,06</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>14,48%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,67; 20,1</t>
+          <t>10,72; 20,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,93; 20,24</t>
+          <t>7,84; 18,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,75; 18,59</t>
+          <t>10,82; 17,67</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>18,8%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>17,72%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>18,26%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,88; 22,18</t>
+          <t>15,36; 22,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,98; 20,31</t>
+          <t>15,1; 20,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,65; 20,18</t>
+          <t>15,95; 20,53</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,64%</t>
+          <t>25,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,41%</t>
+          <t>18,13%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,93; 19,31</t>
+          <t>5,51; 18,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,53; 27,3</t>
+          <t>20,42; 39,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,67; 22,09</t>
+          <t>11,07; 23,42</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>19,09%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>19,75%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>19,16%</t>
+          <t>19,42%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,75; 22,28</t>
+          <t>16,08; 22,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,01; 22,14</t>
+          <t>17,19; 22,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,33; 21,4</t>
+          <t>17,53; 21,68</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>21,84%</t>
+          <t>25,13%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>18,89%</t>
+          <t>16,84%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>19,86%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,03; 24,53</t>
+          <t>21,53; 29,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,44; 22,34</t>
+          <t>6,46; 26,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,5; 22,25</t>
+          <t>10,59; 26,3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>18,34%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>17,08%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>17,58%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,5; 18,49</t>
+          <t>14,69; 22,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,59; 20,02</t>
+          <t>14,39; 20,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,53; 18,97</t>
+          <t>15,16; 19,74</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>16,01%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>18,35%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>17,22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>12,23; 17,93</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>15,03; 20,77</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>14,83; 18,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/Predimed_R3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Predimed_R3-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 12,12</t>
+          <t>2,89; 12,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,07; 18,75</t>
+          <t>8,01; 18,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,14; 13,06</t>
+          <t>6,1; 13,31</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,72; 20,27</t>
+          <t>10,45; 20,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,84; 18,09</t>
+          <t>8,76; 18,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,82; 17,67</t>
+          <t>10,67; 17,67</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,36; 22,8</t>
+          <t>15,45; 23,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,1; 20,42</t>
+          <t>14,86; 20,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,95; 20,53</t>
+          <t>16,1; 20,68</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,51; 18,35</t>
+          <t>5,6; 18,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,42; 39,43</t>
+          <t>20,41; 38,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,07; 23,42</t>
+          <t>11,58; 23,51</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,08; 22,65</t>
+          <t>16,02; 22,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,19; 22,37</t>
+          <t>17,31; 22,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,53; 21,68</t>
+          <t>17,62; 21,75</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21,53; 29,03</t>
+          <t>21,58; 28,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,46; 26,57</t>
+          <t>6,28; 26,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,59; 26,3</t>
+          <t>9,91; 26,3</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,69; 22,3</t>
+          <t>14,7; 22,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,39; 20,22</t>
+          <t>14,65; 20,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,16; 19,74</t>
+          <t>15,53; 20,02</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,23; 17,93</t>
+          <t>12,12; 17,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>15,03; 20,77</t>
+          <t>14,88; 21,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>14,83; 18,86</t>
+          <t>14,82; 18,94</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con una adherencia alta a la dieta mediterránea</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>22342</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>34856</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>57197</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>9967; 43290</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>22337; 52259</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>38049; 82991</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>61466</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>66799</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>128265</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>42213; 82704</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>42218; 89211</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>94561; 156542</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>95670</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>91695</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>187365</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>78639; 119435</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>76873; 106295</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>165228; 212225</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>104996</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>173336</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>278331</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>47681; 157294</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>139579; 260510</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>177701; 360832</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>99785</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>102804</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>202589</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>83771; 117512</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>90101; 118155</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>183760; 226866</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>85344</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>99763</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>185106</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>73271; 98303</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>37214; 158175</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>92369; 245101</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>46917</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>66065</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>112982</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>37616; 58485</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>56664; 77395</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>99809; 128660</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>987</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1559</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>516519</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>635318</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1151836</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>390986; 577176</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>515200; 727904</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>990921; 1266726</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>